--- a/MongoDB指南.xlsx
+++ b/MongoDB指南.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9847F30F-5412-437E-8B1B-4DE32DD5680B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECFC5B41-97DE-422B-8574-DF109AEFA6E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/mongod -shutdown -dbpath=/data/db</t>
+    <t>./mongod -shutdown -dbpath=/data/db</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,6 +273,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361219</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E6B851-2B22-4A24-9F84-C857D2D83780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6276975"/>
+          <a:ext cx="5847619" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -641,7 +685,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/MongoDB指南.xlsx
+++ b/MongoDB指南.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECFC5B41-97DE-422B-8574-DF109AEFA6E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="连接与断开" sheetId="2" r:id="rId2"/>
+    <sheet name="常见命令" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,13 +103,53 @@
   </si>
   <si>
     <t>./mongod -shutdown -dbpath=/data/db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 进入容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it some-mongo /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show dbs;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除当前数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.dropDatabases()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show collections</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +239,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612DD159-B0E8-43B4-9CEB-1FAD91839A15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612DD159-B0E8-43B4-9CEB-1FAD91839A15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -233,21 +274,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>159676</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>170931</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845B4698-62BD-4D02-ACEF-BD807EC821F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845B4698-62BD-4D02-ACEF-BD807EC821F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -263,7 +304,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="361950"/>
+          <a:off x="0" y="619125"/>
           <a:ext cx="17990476" cy="4152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -291,7 +332,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E6B851-2B22-4A24-9F84-C857D2D83780}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81E6B851-2B22-4A24-9F84-C857D2D83780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -582,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,6 +711,16 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -681,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223C2106-CF09-4F9B-87A9-15790B19A030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,6 +746,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
@@ -725,4 +781,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MongoDB指南.xlsx
+++ b/MongoDB指南.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ECFC5B41-97DE-422B-8574-DF109AEFA6E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C70242F-9121-4E88-8C74-D6BDCD96BFB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
-    <sheet name="连接与断开" sheetId="2" r:id="rId2"/>
+    <sheet name="Docker安装" sheetId="3" r:id="rId2"/>
+    <sheet name="连接与断开" sheetId="2" r:id="rId3"/>
+    <sheet name="常见命令" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +104,136 @@
   </si>
   <si>
     <t>./mongod -shutdown -dbpath=/data/db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker    exec  -it  容器ID   /bin/bash </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker pull mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建数据库和集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个test的数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个集合，设置账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">db.createUser({user:"root",pwd:"root",roles:[{role:'root',db:'test'}]}) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use admin</t>
+  </si>
+  <si>
+    <t>db.createUser({user:"root",pwd:"root",roles:[{role:'root',db:'admin'}]})   //创建用户,此用户创建成功,则后续操作都需要用户认证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.dept.insert({"deptno":10, "dname":"财务部","loc":"cq"})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个叫dept的Collection，并添加内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show dbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show collections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.集合名.find()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看表所有的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.集合名.update(更新Objectid, 更新内容)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.集合名.drop()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.dropDatabase()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.insert()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.集合名.find(  {查询条件}  )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run --name mongo -v /home/docker/mongo:/data/db -p 27017:27017 -d mongo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +252,12 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -157,16 +287,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A3477C9E-FA09-4A46-BDB3-B961DA114821}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -586,7 +745,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,11 +840,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D318C-1DBD-46D1-B165-00C2C7F68878}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223C2106-CF09-4F9B-87A9-15790B19A030}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,4 +946,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00A5538-FDD6-4ED3-9D81-AB26779E8481}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>